--- a/biology/Zoologie/Hoplitidae/Hoplitidae.xlsx
+++ b/biology/Zoologie/Hoplitidae/Hoplitidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hoplitidae sont une famille d'ammonites de l'ordre des Ammonitida, du sous-ordre des Ammonitina et de la super-famille des Hoplitoidea.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des fossiles datant du Crétacé (pour l'essentiel) et du Jurassique[1] ont été retrouvés sur tous les continents[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des fossiles datant du Crétacé (pour l'essentiel) et du Jurassique ont été retrouvés sur tous les continents.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Hoplitidae, choisi en 1890 par le paléontologue français Henri Douvillé, pour le genre type Hoplites[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Hoplitidae, choisi en 1890 par le paléontologue français Henri Douvillé, pour le genre type Hoplites,.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la Paleobiology Database                   (20 juillet 2022)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la Paleobiology Database                   (20 juillet 2022) :
 sous-famille des †Anahoplitinae Breistroffer, 1947
 †Anahoplites
 †Anahoplitoides
@@ -613,7 +631,7 @@
 †Pseudosonneratia
 †Sonneratia
 †Tetrahoplites
-Selon GBIF       (20 juillet 2022)[2] :
+Selon GBIF       (20 juillet 2022) :
 Alopecoceras Kennedy &amp; Klinger, 1978
 Amedroites Cooper &amp; Owen, 2011
 Anadesmoceras Casey, 1954
